--- a/ExcelNc/SIMOV/Nc1.xlsx
+++ b/ExcelNc/SIMOV/Nc1.xlsx
@@ -489,22 +489,22 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>SIMOV</t>
+          <t>simov</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Otávio</t>
+          <t>vc</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>César</t>
+          <t xml:space="preserve">quer </t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>Quando o projeto irá terminar?</t>
+          <t>bbbbbb</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>nn</t>
+          <t>naooo</t>
         </is>
       </c>
     </row>
